--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
   </bookViews>
@@ -11,37 +16,104 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
-    <t>Recursive Generate</t>
+    <t>Recursive generation + SVG save</t>
   </si>
   <si>
-    <t>SGV save</t>
+    <t>Recursive generation + binary save</t>
   </si>
   <si>
-    <t>Bin save</t>
+    <t>Generation time (ms)</t>
   </si>
   <si>
-    <t>5973ms</t>
+    <t>Save time (ms)</t>
   </si>
   <si>
-    <t>run</t>
+    <t>Run</t>
   </si>
   <si>
-    <t>139778ms</t>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Kruskal generation + SVG save</t>
+  </si>
+  <si>
+    <t>Kruskal generation + binary save</t>
+  </si>
+  <si>
+    <t>Solve time (ms)</t>
+  </si>
+  <si>
+    <t>Depth first search solve on Recursive</t>
+  </si>
+  <si>
+    <t>Breadth first search solve on Recursive</t>
+  </si>
+  <si>
+    <t>A* search solve on Recursive</t>
+  </si>
+  <si>
+    <t>Depth first search solve on Kruskal</t>
+  </si>
+  <si>
+    <t>Breadth first search solve on Kruskal</t>
+  </si>
+  <si>
+    <t>A* search solve on Kruskal</t>
+  </si>
+  <si>
+    <t>Std. Deviation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maze benchmark - 2000 by 2000 cells with seed of 0 </t>
+  </si>
+  <si>
+    <t>Josh Nithsdale (s3346764@student.rmit.edu.au)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -65,21 +137,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -128,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,62 +505,1176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>8195</v>
+      </c>
+      <c r="C6">
+        <v>122056</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8309</v>
+      </c>
+      <c r="G6">
+        <v>3862</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>23835</v>
+      </c>
+      <c r="K6">
+        <v>126285</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22642</v>
+      </c>
+      <c r="O6">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7">
+        <v>8187</v>
+      </c>
+      <c r="C7">
+        <v>123541</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>8590</v>
+      </c>
+      <c r="G7">
+        <v>3470</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>20954</v>
+      </c>
+      <c r="K7">
+        <v>123581</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>22894</v>
+      </c>
+      <c r="O7">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>8641</v>
+      </c>
+      <c r="C8">
+        <v>123991</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8126</v>
+      </c>
+      <c r="G8">
+        <v>3912</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>23544</v>
+      </c>
+      <c r="K8">
+        <v>124383</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>33902</v>
+      </c>
+      <c r="O8">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>6465</v>
-      </c>
-      <c r="E3">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>6051</v>
-      </c>
-      <c r="D4">
-        <v>138607</v>
-      </c>
-    </row>
+      <c r="B9">
+        <v>8384</v>
+      </c>
+      <c r="C9">
+        <v>122999</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8150</v>
+      </c>
+      <c r="G9">
+        <v>3771</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>22647</v>
+      </c>
+      <c r="K9">
+        <v>132267</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>32383</v>
+      </c>
+      <c r="O9">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>8459</v>
+      </c>
+      <c r="C10">
+        <v>123984</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>8246</v>
+      </c>
+      <c r="G10">
+        <v>3686</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>23994</v>
+      </c>
+      <c r="K10">
+        <v>123588</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>22578</v>
+      </c>
+      <c r="O10">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>8684</v>
+      </c>
+      <c r="C11">
+        <v>125557</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>8354</v>
+      </c>
+      <c r="G11">
+        <v>4189</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>24076</v>
+      </c>
+      <c r="K11">
+        <v>119942</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>23152</v>
+      </c>
+      <c r="O11">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>8803</v>
+      </c>
+      <c r="C12">
+        <v>128831</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>9167</v>
+      </c>
+      <c r="G12">
+        <v>3680</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>24282</v>
+      </c>
+      <c r="K12">
+        <v>119359</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>23180</v>
+      </c>
+      <c r="O12">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>8702</v>
+      </c>
+      <c r="C13">
+        <v>126294</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>8216</v>
+      </c>
+      <c r="G13">
+        <v>3864</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>24139</v>
+      </c>
+      <c r="K13">
+        <v>120997</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>22489</v>
+      </c>
+      <c r="O13">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>8700</v>
+      </c>
+      <c r="C14">
+        <v>129674</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8337</v>
+      </c>
+      <c r="G14">
+        <v>4081</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>23208</v>
+      </c>
+      <c r="K14">
+        <v>117102</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>23237</v>
+      </c>
+      <c r="O14">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>8239</v>
+      </c>
+      <c r="C15">
+        <v>122846</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>8910</v>
+      </c>
+      <c r="G15">
+        <v>4008</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>23373</v>
+      </c>
+      <c r="K15">
+        <v>127656</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>22345</v>
+      </c>
+      <c r="O15">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <f>AVERAGE(B6:B15)</f>
+        <v>8499.4</v>
+      </c>
+      <c r="C17" s="1">
+        <f>AVERAGE(C6:C15)</f>
+        <v>124977.3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <f>AVERAGE(F6:F15)</f>
+        <v>8440.5</v>
+      </c>
+      <c r="G17" s="1">
+        <f>AVERAGE(G6:G15)</f>
+        <v>3852.3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <f>AVERAGE(J6:J15)</f>
+        <v>23405.200000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <f>AVERAGE(K6:K15)</f>
+        <v>123516</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <f>AVERAGE(N6:N15)</f>
+        <v>24880.2</v>
+      </c>
+      <c r="O17" s="1">
+        <f>AVERAGE(O6:O15)</f>
+        <v>4544.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <f>STDEV(B6:B15)</f>
+        <v>235.84326245293599</v>
+      </c>
+      <c r="C18" s="1">
+        <f>STDEV(C6:C15)</f>
+        <v>2581.821925609037</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <f>STDEV(F6:F15)</f>
+        <v>346.0251275397336</v>
+      </c>
+      <c r="G18" s="1">
+        <f>STDEV(G6:G15)</f>
+        <v>211.82122965683425</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <f>STDEV(J6:J15)</f>
+        <v>996.16294963335292</v>
+      </c>
+      <c r="K18" s="1">
+        <f>STDEV(K6:K15)</f>
+        <v>4468.2452683103438</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <f>STDEV(N6:N15)</f>
+        <v>4380.031400191865</v>
+      </c>
+      <c r="O18" s="1">
+        <f>STDEV(O6:O15)</f>
+        <v>180.16045317685257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2803</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3780</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>14052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2861</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3764</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>14043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3067</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5456</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>14126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2891</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3769</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>14101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2870</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4118</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>14910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2865</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3812</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>14023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2906</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>3797</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>14065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2580</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>3796</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>14129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>2971</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>4782</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>14432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2795</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>3791</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>16849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <f>AVERAGE(B22:B31)</f>
+        <v>2860.9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1">
+        <f>AVERAGE(F22:F31)</f>
+        <v>4086.5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <f>AVERAGE(J22:J31)</f>
+        <v>14473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1">
+        <f>STDEV(B22:B31)</f>
+        <v>126.59598905354169</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1">
+        <f>STDEV(F22:F31)</f>
+        <v>576.37454065139889</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1">
+        <f>STDEV(J22:J31)</f>
+        <v>878.52527946933128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>3074</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>5330</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2286</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>6104</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>6777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>2298</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>5321</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2287</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>6565</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2292</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>5319</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2305</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5405</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>2295</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>6413</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>2964</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>5309</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2732</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>5355</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>2273</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>6417</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <f>AVERAGE(B38:B47)</f>
+        <v>2480.6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <f>AVERAGE(F38:F47)</f>
+        <v>5753.8</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <f>AVERAGE(J38:J47)</f>
+        <v>7049.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1">
+        <f>STDEV(B38:B47)</f>
+        <v>316.51652581044004</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1">
+        <f>STDEV(F38:F47)</f>
+        <v>546.66540650261254</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1">
+        <f>STDEV(J38:J47)</f>
+        <v>514.03092211353282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
